--- a/inst/extdata/data3/output_files_384w/output/trt_P4.xlsx
+++ b/inst/extdata/data3/output_files_384w/output/trt_P4.xlsx
@@ -1,101 +1,157 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Gnumber" r:id="rId3" sheetId="1"/>
-    <sheet name="Concentration" r:id="rId4" sheetId="2"/>
+    <sheet name="Gnumber" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Concentration" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Gnumber_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Concentration_2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t/>
+    <t xml:space="preserve">G00001</t>
   </si>
   <si>
-    <t>G00001</t>
+    <t xml:space="preserve">G00002</t>
   </si>
   <si>
-    <t>G00002</t>
+    <t xml:space="preserve">G00003</t>
   </si>
   <si>
-    <t>G00003</t>
+    <t xml:space="preserve">G00004</t>
   </si>
   <si>
-    <t>vehicle</t>
+    <t xml:space="preserve">G00005</t>
   </si>
   <si>
-    <t>0.3</t>
+    <t xml:space="preserve">G00006</t>
   </si>
   <si>
-    <t>10</t>
+    <t xml:space="preserve">untreated</t>
   </si>
   <si>
-    <t>0.09486832980505</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t>3.162277660168</t>
+    <t xml:space="preserve">0.01</t>
   </si>
   <si>
-    <t>0.03</t>
+    <t xml:space="preserve">0.1</t>
   </si>
   <si>
-    <t>1</t>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
-    <t>0.009486832980505</t>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t>0.3162277660168</t>
+    <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t>0.003</t>
+    <t xml:space="preserve">0.03333333333333</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t xml:space="preserve">0.01111111111111</t>
   </si>
   <si>
-    <t>0.0009486832980505</t>
+    <t xml:space="preserve">0.003703703703704</t>
   </si>
   <si>
-    <t>0.03162277660168</t>
+    <t xml:space="preserve">0.001234567901235</t>
   </si>
   <si>
-    <t>0.0003</t>
+    <t xml:space="preserve">0.0004115226337449</t>
   </si>
   <si>
-    <t>0.01</t>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
-    <t>9.486832980505E-05</t>
+    <t xml:space="preserve">1.666666666667</t>
   </si>
   <si>
-    <t>0.003162277660168</t>
+    <t xml:space="preserve">0.5555555555556</t>
   </si>
   <si>
-    <t>3E-05</t>
+    <t xml:space="preserve">0.1851851851852</t>
   </si>
   <si>
-    <t>0.001</t>
+    <t xml:space="preserve">0.06172839506173</t>
   </si>
   <si>
-    <t>0</t>
+    <t xml:space="preserve">0.02057613168724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0004116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0001372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.573333333333E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.524444444444E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.081481481481E-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.693827160494E-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00013733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.577666666667E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.525888888889E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.086296296296E-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.695432098765E-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.651440329218E-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.006866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002288666666667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0007628888888889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0002542962962963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.476543209877E-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.825514403292E-05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,7 +162,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -124,16 +180,297 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -149,496 +486,4476 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="W1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="T4" t="s">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>0</v>
+      </c>
+      <c r="U6" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>0</v>
+      </c>
+      <c r="S9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" t="s">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" t="s">
+        <v>0</v>
+      </c>
+      <c r="V11" t="s">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
+        <v>12</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S3" t="s">
+        <v>9</v>
+      </c>
+      <c r="T3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>9</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" t="s">
+        <v>16</v>
+      </c>
+      <c r="T7" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" t="s">
+        <v>16</v>
+      </c>
+      <c r="V7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
         <v>18</v>
       </c>
+      <c r="Q8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" t="s">
+        <v>24</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V9" t="s">
+        <v>24</v>
+      </c>
+      <c r="W9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
+        <v>25</v>
+      </c>
+      <c r="P10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+      <c r="V10" t="s">
+        <v>25</v>
+      </c>
+      <c r="W10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>26</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U11" t="s">
+        <v>26</v>
+      </c>
+      <c r="V11" t="s">
+        <v>26</v>
+      </c>
+      <c r="W11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" t="s">
+        <v>27</v>
+      </c>
+      <c r="V12" t="s">
+        <v>27</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s">
+        <v>28</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" t="s">
+        <v>29</v>
+      </c>
+      <c r="U14" t="s">
+        <v>29</v>
+      </c>
+      <c r="V14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" t="s">
+        <v>34</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" t="s">
+        <v>39</v>
+      </c>
+      <c r="T15" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" t="s">
+        <v>41</v>
+      </c>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
+        <v>6</v>
+      </c>
+      <c r="W4" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" t="s">
+        <v>6</v>
+      </c>
+      <c r="X5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" t="s">
+        <v>6</v>
+      </c>
+      <c r="W6" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
       <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>6</v>
+      </c>
+      <c r="W7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
+      </c>
+      <c r="O8" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>6</v>
+      </c>
+      <c r="T8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U8" t="s">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W8" t="s">
+        <v>6</v>
+      </c>
+      <c r="X8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" t="s">
+        <v>6</v>
+      </c>
+      <c r="W9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
+        <v>6</v>
+      </c>
+      <c r="W10" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" t="s">
+        <v>6</v>
+      </c>
+      <c r="X11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U12" t="s">
+        <v>5</v>
+      </c>
+      <c r="V12" t="s">
+        <v>6</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>6</v>
+      </c>
+      <c r="P13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>5</v>
+      </c>
+      <c r="V13" t="s">
+        <v>6</v>
+      </c>
+      <c r="W13" t="s">
+        <v>6</v>
+      </c>
+      <c r="X13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" t="s">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
+        <v>6</v>
+      </c>
+      <c r="W14" t="s">
+        <v>6</v>
+      </c>
+      <c r="X14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>6</v>
+      </c>
+      <c r="N15" t="s">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>6</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" t="s">
+        <v>6</v>
+      </c>
+      <c r="T15" t="s">
+        <v>6</v>
+      </c>
+      <c r="U15" t="s">
+        <v>6</v>
+      </c>
+      <c r="V15" t="s">
+        <v>6</v>
+      </c>
+      <c r="W15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
         <v>20</v>
       </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" t="s">
+        <v>21</v>
+      </c>
+      <c r="T3" t="s">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" t="s">
+        <v>11</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" t="s">
+        <v>11</v>
+      </c>
+      <c r="X6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" t="s">
+        <v>9</v>
+      </c>
       <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
+        <v>21</v>
+      </c>
+      <c r="T7" t="s">
         <v>22</v>
       </c>
-      <c r="K7" t="s">
+      <c r="U7" t="s">
         <v>23</v>
       </c>
+      <c r="V7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W7" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S8" t="s">
+        <v>11</v>
+      </c>
+      <c r="T8" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" t="s">
+        <v>11</v>
+      </c>
+      <c r="V8" t="s">
+        <v>11</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M9" t="s">
+        <v>34</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V9" t="s">
+        <v>11</v>
+      </c>
+      <c r="W9" t="s">
+        <v>11</v>
+      </c>
+      <c r="X9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>40</v>
+      </c>
+      <c r="U10" t="s">
+        <v>41</v>
+      </c>
+      <c r="V10" t="s">
+        <v>11</v>
+      </c>
+      <c r="W10" t="s">
+        <v>11</v>
+      </c>
+      <c r="X10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="M11" t="s">
+        <v>34</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" t="s">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" t="s">
+        <v>41</v>
+      </c>
+      <c r="V11" t="s">
+        <v>11</v>
+      </c>
+      <c r="W11" t="s">
+        <v>11</v>
+      </c>
+      <c r="X11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" t="s">
+        <v>34</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" t="s">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s">
+        <v>39</v>
+      </c>
+      <c r="T12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V12" t="s">
+        <v>11</v>
+      </c>
+      <c r="W12" t="s">
+        <v>11</v>
+      </c>
+      <c r="X12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" t="s">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T13" t="s">
+        <v>40</v>
+      </c>
+      <c r="U13" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W13" t="s">
+        <v>11</v>
+      </c>
+      <c r="X13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s">
+        <v>39</v>
+      </c>
+      <c r="T14" t="s">
+        <v>40</v>
+      </c>
+      <c r="U14" t="s">
+        <v>41</v>
+      </c>
+      <c r="V14" t="s">
+        <v>11</v>
+      </c>
+      <c r="W14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" t="s">
+        <v>11</v>
+      </c>
+      <c r="S15" t="s">
+        <v>11</v>
+      </c>
+      <c r="T15" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" t="s">
+        <v>11</v>
+      </c>
+      <c r="V15" t="s">
+        <v>11</v>
+      </c>
+      <c r="W15" t="s">
+        <v>11</v>
+      </c>
+      <c r="X15" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>